--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:44:22+00:00</t>
+    <t>2024-03-28T13:28:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T13:28:20+00:00</t>
+    <t>2024-03-28T16:20:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T16:20:19+00:00</t>
+    <t>2024-03-28T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T17:00:10+00:00</t>
+    <t>2024-03-28T17:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T17:14:17+00:00</t>
+    <t>2024-04-02T09:13:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T09:13:36+00:00</t>
+    <t>2024-04-02T09:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T09:29:34+00:00</t>
+    <t>2024-04-02T10:08:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T10:08:21+00:00</t>
+    <t>2024-04-02T10:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T10:29:34+00:00</t>
+    <t>2024-04-02T14:42:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:42:30+00:00</t>
+    <t>2024-04-02T15:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
